--- a/filterbank harmonic summation model/MS/amp_MS.xlsx
+++ b/filterbank harmonic summation model/MS/amp_MS.xlsx
@@ -553,115 +553,115 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3322869978310795</v>
+        <v>0.0002085142861348469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3398355639902</v>
+        <v>0.0002132511066974463</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3223006365389208</v>
+        <v>0.0002022477183500379</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4002730946618677</v>
+        <v>0.0002511764201945519</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4130558176295088</v>
+        <v>0.0002591977402337192</v>
       </c>
       <c r="G2" t="n">
-        <v>0.422093224071583</v>
+        <v>0.0002648688268699093</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4197061424384945</v>
+        <v>0.0002633709030091566</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3947648927063895</v>
+        <v>0.0002477199539285531</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4150490773752737</v>
+        <v>0.0002604485358883262</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4622907803946041</v>
+        <v>0.0002900933009413293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.489164972794667</v>
+        <v>0.0003069571959487358</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5400390872079027</v>
+        <v>0.0003388813450092145</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5605429689140503</v>
+        <v>0.0003517477896334611</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5678563972664217</v>
+        <v>0.0003563370582538008</v>
       </c>
       <c r="P2" t="n">
-        <v>0.588823921689959</v>
+        <v>0.0003694944445365207</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6330874730973508</v>
+        <v>0.0003972703818550111</v>
       </c>
       <c r="R2" t="n">
-        <v>0.590877671648169</v>
+        <v>0.0003707831985631027</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6883349110951835</v>
+        <v>0.0004319388466763567</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6760269028218041</v>
+        <v>0.0004242154161009295</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6558317818409619</v>
+        <v>0.0004115427227297977</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6322786512650869</v>
+        <v>0.0003967628359442003</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6109627113629372</v>
+        <v>0.0003833868145500393</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5925230269719792</v>
+        <v>0.0003718156798007733</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6029085245621938</v>
+        <v>0.000378332710651555</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6338499638432356</v>
+        <v>0.000397748854424207</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6444741721712806</v>
+        <v>0.0004044156792766087</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6334067787999941</v>
+        <v>0.0003974707502145317</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6038034657613631</v>
+        <v>0.0003788942975523229</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5672663793908844</v>
+        <v>0.0003559668145881519</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5343932424571778</v>
+        <v>0.000335338506151511</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5486495139086444</v>
+        <v>0.0003442844964672631</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5228445443671915</v>
+        <v>0.0003280915523021627</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.4895843641108147</v>
+        <v>0.0003072203692942729</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.4538901413488564</v>
+        <v>0.0002848217938852781</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.4111980227933625</v>
+        <v>0.0002580319505200905</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.417049870258463</v>
+        <v>0.0002617040586817698</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.4330219276871843</v>
+        <v>0.0002717267263593888</v>
       </c>
     </row>
     <row r="3">
@@ -671,115 +671,115 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.455788210486488</v>
+        <v>0.0002860128562315364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5538664324090287</v>
+        <v>0.0003475581786878486</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5848745538544723</v>
+        <v>0.0003670161663604994</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5427028597253739</v>
+        <v>0.0003405528958930337</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4576926068080955</v>
+        <v>0.000287207888965618</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3490762790643009</v>
+        <v>0.0002190497720669267</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3434528066691243</v>
+        <v>0.0002155209721447721</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3562054883454771</v>
+        <v>0.0002235234408943963</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3843614683698193</v>
+        <v>0.000241191673818115</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4092029317517117</v>
+        <v>0.0002567800057041957</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3994761125554856</v>
+        <v>0.0002506763038612037</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3939099238236117</v>
+        <v>0.000247183450160956</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3602938227719294</v>
+        <v>0.0002260889223606485</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3235007444151958</v>
+        <v>0.0002030008011933019</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2875602715151271</v>
+        <v>0.0001804477007138293</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.274151822447797</v>
+        <v>0.0001720337296475552</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2872207902745397</v>
+        <v>0.0001802346719495403</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3080048650844733</v>
+        <v>0.000193276941283743</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3079880020629169</v>
+        <v>0.0001932663595248272</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2963044123176908</v>
+        <v>0.0001859347594588605</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2828224976028093</v>
+        <v>0.0001774746877712722</v>
       </c>
       <c r="W3" t="n">
-        <v>0.246559913484292</v>
+        <v>0.0001547194584356926</v>
       </c>
       <c r="X3" t="n">
-        <v>0.253922239156074</v>
+        <v>0.0001593394107412723</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2994820143334281</v>
+        <v>0.0001879287448397417</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3613383889775736</v>
+        <v>0.0002267444008419378</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3622513873713902</v>
+        <v>0.0002273173188603122</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3707313381393202</v>
+        <v>0.0002326385950233128</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4055636380987374</v>
+        <v>0.0002544963029922684</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.4396684892291808</v>
+        <v>0.0002758975276372807</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.4532800527629857</v>
+        <v>0.0002844389555955099</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.4386796929890928</v>
+        <v>0.0002752770455134524</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.3985666680947403</v>
+        <v>0.0002501056159806988</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.3534681494868662</v>
+        <v>0.0002218057262027653</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.3176804259350287</v>
+        <v>0.0001993484778677096</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.2796342727225593</v>
+        <v>0.0001754740364087996</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2447164757004983</v>
+        <v>0.0001535626779536674</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.2373093176652622</v>
+        <v>0.0001489145927740287</v>
       </c>
     </row>
     <row r="4">
@@ -789,115 +789,115 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1791153728936642</v>
+        <v>0.0001123971577536281</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2137076155191474</v>
+        <v>0.0001341042267149083</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2195672201181407</v>
+        <v>0.0001377812025760363</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2482037765365841</v>
+        <v>0.0001557510032541461</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1422763332823657</v>
+        <v>8.928019531879879e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1747204877489225</v>
+        <v>0.000109639311841564</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1441450272358335</v>
+        <v>9.045282436614395e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1850562805093404</v>
+        <v>0.0001161251522841439</v>
       </c>
       <c r="J4" t="n">
-        <v>0.213637542227105</v>
+        <v>0.0001340602548395033</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2702563139047899</v>
+        <v>0.0001695892488575177</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3122223499352326</v>
+        <v>0.0001959234662717224</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3202157217874779</v>
+        <v>0.0002009394080222588</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3268487375234893</v>
+        <v>0.0002051017091358845</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3057629567938245</v>
+        <v>0.000191870115528129</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3273293951515563</v>
+        <v>0.0002054033278656146</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3498292076677859</v>
+        <v>0.0002195222442710482</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3348294042662662</v>
+        <v>0.0002101096782698323</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3767597666903426</v>
+        <v>0.0002364215100456765</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3759429307741596</v>
+        <v>0.0002359089351960318</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3938634496974595</v>
+        <v>0.0002471542870600774</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4097801601462484</v>
+        <v>0.0002571422238090545</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3972882911985217</v>
+        <v>0.0002493034183393038</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3525853132142769</v>
+        <v>0.0002212517352962463</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3181366552040134</v>
+        <v>0.000199634767493717</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.3226655373691968</v>
+        <v>0.0002024766982277691</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3444046712513453</v>
+        <v>0.000216118279187041</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3465914640237442</v>
+        <v>0.000217490519259141</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3342660688747776</v>
+        <v>0.00020975617819978</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2903443636405457</v>
+        <v>0.0001821947536706243</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.2292784965406258</v>
+        <v>0.0001438751511322842</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1587643701741068</v>
+        <v>9.962664662350538e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1255816183121392</v>
+        <v>7.880405091061116e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.2082240850816022</v>
+        <v>0.0001306632421378811</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.2413450997854115</v>
+        <v>0.0001514470970046231</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2718549364623398</v>
+        <v>0.0001705924046943766</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.3125369028445333</v>
+        <v>0.0001961208521934184</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.2870614929159199</v>
+        <v>0.0001801347108459384</v>
       </c>
     </row>
     <row r="5">
@@ -907,115 +907,115 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3308144714587103</v>
+        <v>0.0002075902572461049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2945349173017937</v>
+        <v>0.0001848243789971894</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2718048864806246</v>
+        <v>0.0001705609976989885</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3512864065886137</v>
+        <v>0.0002204366549904449</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4268708978028127</v>
+        <v>0.0002678668774525536</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4757305986247812</v>
+        <v>0.0002985269565533135</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5054072907684422</v>
+        <v>0.0003171494555303117</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5370063186328541</v>
+        <v>0.000336978244440832</v>
       </c>
       <c r="J5" t="n">
-        <v>0.493201813945499</v>
+        <v>0.0003094903647344534</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4765247140885601</v>
+        <v>0.0002990252740322378</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4403242364396071</v>
+        <v>0.0002763090172903801</v>
       </c>
       <c r="M5" t="n">
-        <v>0.437178721829495</v>
+        <v>0.0002743351671616197</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3809367358346442</v>
+        <v>0.0002390426109163585</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2994771238467386</v>
+        <v>0.0001879256759976036</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2668593656404423</v>
+        <v>0.0001674576209364712</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3209586042331269</v>
+        <v>0.0002014055761355094</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3953030905461777</v>
+        <v>0.0002480576798675615</v>
       </c>
       <c r="S5" t="n">
-        <v>0.47424515770103</v>
+        <v>0.0002975948236205379</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5189068105357711</v>
+        <v>0.0003256205746105678</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5447333153451661</v>
+        <v>0.0003418270324281763</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5131660117657296</v>
+        <v>0.0003220181509069851</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4716599000058151</v>
+        <v>0.0002959725417789042</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4462851408850351</v>
+        <v>0.0002800495600840175</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4430854867650736</v>
+        <v>0.0002780417367293362</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4675788323234408</v>
+        <v>0.0002934116202863008</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4796461931481991</v>
+        <v>0.0003009840415496367</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.4727534837729857</v>
+        <v>0.0002966587793988792</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4654722607057752</v>
+        <v>0.0002920897200015573</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4409589811039323</v>
+        <v>0.0002767073275806519</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.4443471456220949</v>
+        <v>0.0002788334435900761</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.3983416907478689</v>
+        <v>0.0002499644398552843</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.3906895212039984</v>
+        <v>0.0002451626068608013</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.3783957094312858</v>
+        <v>0.0002374480847687678</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.4057069727914419</v>
+        <v>0.0002545862473214859</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.4078988813895549</v>
+        <v>0.0002559616976388069</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.3888174210820165</v>
+        <v>0.000243987840399712</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.3624585403275336</v>
+        <v>0.0002274473099555187</v>
       </c>
     </row>
     <row r="6">
@@ -1025,115 +1025,115 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3431406412642017</v>
+        <v>0.0002153250844122148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3737904823086383</v>
+        <v>0.0002345582466100811</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4905442561865538</v>
+        <v>0.0003078227136900683</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5348240717722589</v>
+        <v>0.0003356088569857793</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6130730079920811</v>
+        <v>0.0003847110523265123</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6774309070167949</v>
+        <v>0.0004250964464583004</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7415108627325001</v>
+        <v>0.0004653074276547579</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7584811339533609</v>
+        <v>0.0004759564870890106</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7360098776934906</v>
+        <v>0.0004618554900949542</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6870530310240037</v>
+        <v>0.0004311344507484474</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6772238945803843</v>
+        <v>0.0004249665435410002</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6007642243246971</v>
+        <v>0.0003769871351815581</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5182422296994333</v>
+        <v>0.0003252035417456877</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4351392330245915</v>
+        <v>0.0002730553621887793</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4209299373740567</v>
+        <v>0.0002641388497811634</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4384540311842418</v>
+        <v>0.0002751354398820146</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4384859841748579</v>
+        <v>0.0002751554907870205</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4300402054317294</v>
+        <v>0.0002698556580009914</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4347839261484918</v>
+        <v>0.0002728324026384136</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4734135487687767</v>
+        <v>0.0002970729785168054</v>
       </c>
       <c r="V6" t="n">
-        <v>0.549929102355615</v>
+        <v>0.0003450874543720503</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6567174997292241</v>
+        <v>0.0004120985218865307</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7355980064278804</v>
+        <v>0.0004615970356760671</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8027043020583129</v>
+        <v>0.0005037070833753962</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.8664702356676721</v>
+        <v>0.000543721011735713</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.8844706088331837</v>
+        <v>0.0005550164731448759</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8832517690627139</v>
+        <v>0.0005542516358015216</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8625056947029061</v>
+        <v>0.0005412332122295139</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.840125431394356</v>
+        <v>0.0005271893144611621</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.8223076584505108</v>
+        <v>0.0005160084369963528</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.8021932643740916</v>
+        <v>0.0005033864007768927</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7954175934080644</v>
+        <v>0.0004991345817054646</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7513718514492687</v>
+        <v>0.000471495322565729</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7040906807643228</v>
+        <v>0.000441825791054288</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.6561870694356933</v>
+        <v>0.0004117656701808612</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.5500509969414997</v>
+        <v>0.0003451639447635654</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.5083218318270331</v>
+        <v>0.0003189783668395401</v>
       </c>
     </row>
     <row r="7">
@@ -1143,115 +1143,115 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3320784129946736</v>
+        <v>0.0002083833965166987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4105689567233681</v>
+        <v>0.0002576372036194512</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4346731240449287</v>
+        <v>0.0002727628729195938</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4576797933950147</v>
+        <v>0.0002871998483871453</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4231805004989819</v>
+        <v>0.0002655511065545498</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4230236002494459</v>
+        <v>0.0002654526496671606</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4412471254525066</v>
+        <v>0.0002768881417970942</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4635708802350726</v>
+        <v>0.0002908965797519925</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4635230653999025</v>
+        <v>0.0002908665753392793</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4414331912188584</v>
+        <v>0.0002770049004144889</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4144737092977948</v>
+        <v>0.0002600874851559069</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3620676908688243</v>
+        <v>0.0002272020469858542</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3119476797224364</v>
+        <v>0.0001957511072455867</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2910395247214403</v>
+        <v>0.0001826309760250275</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3076797355817601</v>
+        <v>0.0001930729184161553</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3149527022095506</v>
+        <v>0.0001976367967935068</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3518165233347079</v>
+        <v>0.0002207693099411395</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3480752692527428</v>
+        <v>0.0002184216257728092</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3632158483041352</v>
+        <v>0.0002279225302715588</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4133287998628568</v>
+        <v>0.000259369040031441</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4517740641256366</v>
+        <v>0.0002834939287130447</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5175528965028376</v>
+        <v>0.0003247709764622569</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6249368144473739</v>
+        <v>0.0003921557406532127</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.731069374205075</v>
+        <v>0.0004587552617840126</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.8088960604353621</v>
+        <v>0.0005075924899255682</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8214026272957154</v>
+        <v>0.0005154405185210476</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6864949961347521</v>
+        <v>0.0004307842768104656</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.7725906462126338</v>
+        <v>0.0004848103841588826</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.7514180033311907</v>
+        <v>0.0004715242834542849</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7609994788133164</v>
+        <v>0.0004775367802817702</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7520179785862491</v>
+        <v>0.0004719007755012914</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.734035491587243</v>
+        <v>0.0004606165378874169</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6793358860652626</v>
+        <v>0.0004262918448608434</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6351051476993675</v>
+        <v>0.0003985364981401444</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.6073955321491247</v>
+        <v>0.0003811483645591032</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.5468339930276934</v>
+        <v>0.0003431452341942118</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.5484777120025576</v>
+        <v>0.0003441766886022605</v>
       </c>
     </row>
     <row r="8">
@@ -1261,115 +1261,115 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3362297687058342</v>
+        <v>0.0002109884246347249</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3164532955133819</v>
+        <v>0.0001985784380360755</v>
       </c>
       <c r="D8" t="n">
-        <v>0.320460033347797</v>
+        <v>0.0002010927166106987</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3950045652827929</v>
+        <v>0.0002478703514960206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.40499804848743</v>
+        <v>0.0002541413883708211</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4071221251371074</v>
+        <v>0.0002554742732841464</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4157955487379985</v>
+        <v>0.0002609169560923504</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4398309173748929</v>
+        <v>0.000275999453349308</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4405094082085177</v>
+        <v>0.0002764252149130941</v>
       </c>
       <c r="K8" t="n">
-        <v>0.454243341978892</v>
+        <v>0.0002850434317396478</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4950561597242784</v>
+        <v>0.0003106539901210414</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5102735163297473</v>
+        <v>0.0003202030735042611</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5616538787591393</v>
+        <v>0.000352444899586065</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6112673626106899</v>
+        <v>0.0003835779870541092</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6113045477651704</v>
+        <v>0.0003836013212079941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6336242322784273</v>
+        <v>0.0003976072050175155</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6335601390391361</v>
+        <v>0.0003975669857007075</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6607152431380425</v>
+        <v>0.0004146071563455408</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6834599288114074</v>
+        <v>0.0004288797337485066</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8359334587922577</v>
+        <v>0.0005245587987312998</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8591912113369709</v>
+        <v>0.0005391533320733089</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8465138534620174</v>
+        <v>0.0005311981299599968</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8338181997255217</v>
+        <v>0.0005232314469625889</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8480397474265664</v>
+        <v>0.0005321556476865772</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.88074270357743</v>
+        <v>0.0005526771655335169</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9057522809088943</v>
+        <v>0.0005683709910453282</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.8952829444662047</v>
+        <v>0.0005618013502561851</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.8838489645340533</v>
+        <v>0.0005546263834991507</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.8540093272747028</v>
+        <v>0.0005359016344049378</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.808095791003428</v>
+        <v>0.0005070903107539351</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.7578341898811131</v>
+        <v>0.0004755505215162543</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7062784882143209</v>
+        <v>0.0004431986678493914</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.6513257535258544</v>
+        <v>0.0004087151330751892</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.5908173521382792</v>
+        <v>0.0003707453473091362</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.5829317276161945</v>
+        <v>0.0003657970183685443</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.5423309492171687</v>
+        <v>0.0003403195173539074</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.5387520115828353</v>
+        <v>0.0003380736888056488</v>
       </c>
     </row>
     <row r="9">
@@ -1379,115 +1379,115 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9611664113801403</v>
+        <v>0.000603144057498169</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8642102351276771</v>
+        <v>0.0005423028328652266</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7387547492211661</v>
+        <v>0.0004635779316315204</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6405528032517193</v>
+        <v>0.0004019549707738061</v>
       </c>
       <c r="F9" t="n">
-        <v>0.679913116165956</v>
+        <v>0.000426654064036337</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6544189135878923</v>
+        <v>0.000410656130064077</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6065855941977569</v>
+        <v>0.0003806401182694641</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6167785591252977</v>
+        <v>0.0003870363324437668</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6927092011205818</v>
+        <v>0.0004346837688910272</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8205599256157652</v>
+        <v>0.0005149117125780935</v>
       </c>
       <c r="L9" t="n">
-        <v>0.941921960985958</v>
+        <v>0.0005910679219220177</v>
       </c>
       <c r="M9" t="n">
-        <v>1.142421208771102</v>
+        <v>0.0007168837311332645</v>
       </c>
       <c r="N9" t="n">
-        <v>1.230117022903903</v>
+        <v>0.0007719139616276006</v>
       </c>
       <c r="O9" t="n">
-        <v>1.253042276202603</v>
+        <v>0.000786299847495061</v>
       </c>
       <c r="P9" t="n">
-        <v>1.148139754833266</v>
+        <v>0.0007204721909817222</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.042891496956236</v>
+        <v>0.0006544275804450153</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9806108011549286</v>
+        <v>0.0006153456575598085</v>
       </c>
       <c r="S9" t="n">
-        <v>1.075962331467484</v>
+        <v>0.0006751799466074195</v>
       </c>
       <c r="T9" t="n">
-        <v>1.003309728095279</v>
+        <v>0.0006295895207801213</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9703115711125181</v>
+        <v>0.0006088827606843687</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9704560934396138</v>
+        <v>0.0006089734502691601</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9671835532516102</v>
+        <v>0.0006069198899866238</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9638645427087895</v>
+        <v>0.0006048371689697691</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9799905191277248</v>
+        <v>0.0006149564227569155</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.035846812969389</v>
+        <v>0.0006500069523068369</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.108086317130971</v>
+        <v>0.0006953381531642502</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.16600291503182</v>
+        <v>0.0007316815495218582</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.203889311791648</v>
+        <v>0.000755455741789872</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.208984999212623</v>
+        <v>0.0007586533499776322</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.170589577758682</v>
+        <v>0.0007345597382878209</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.118436498540162</v>
+        <v>0.0007018330226655865</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.0409750233777</v>
+        <v>0.0006532249690797406</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.9596236633734612</v>
+        <v>0.0006021759636473761</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.855434454978976</v>
+        <v>0.0005367959200310597</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.7637419705023326</v>
+        <v>0.0004792577284395331</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.6428296793363293</v>
+        <v>0.0004033837392615856</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.5265983405855275</v>
+        <v>0.0003304471068194054</v>
       </c>
     </row>
     <row r="10">
@@ -1497,115 +1497,115 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.326137464651945</v>
+        <v>0.0002046553764294434</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3439734610513092</v>
+        <v>0.0002158476893426549</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3163382033750566</v>
+        <v>0.0001985062162662823</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3136688662930245</v>
+        <v>0.0001968311735479508</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4164519906327829</v>
+        <v>0.0002613288816686547</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4402217608270158</v>
+        <v>0.0002762447125497638</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5248453278107355</v>
+        <v>0.0003293470691721098</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5177453935486206</v>
+        <v>0.000324891770788687</v>
       </c>
       <c r="J10" t="n">
-        <v>0.528830179639096</v>
+        <v>0.0003318476140016312</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5342627930447998</v>
+        <v>0.0003352566474983701</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5291955662242144</v>
+        <v>0.0003320768986966585</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5357715774283011</v>
+        <v>0.0003362034287468411</v>
       </c>
       <c r="N10" t="n">
-        <v>0.510985923188466</v>
+        <v>0.0003206501178019704</v>
       </c>
       <c r="O10" t="n">
-        <v>0.438773090837278</v>
+        <v>0.0002753356538423005</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3753265517923547</v>
+        <v>0.000235522149603401</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2921423885561207</v>
+        <v>0.0001833230370045222</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2896844018046826</v>
+        <v>0.0001817806192868553</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2817889093496236</v>
+        <v>0.0001768260980937431</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2830907645245918</v>
+        <v>0.0001776430286514577</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3082117696778337</v>
+        <v>0.0001934067765281677</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3734858244900379</v>
+        <v>0.0002343670699827214</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4459597191802809</v>
+        <v>0.0002798453538559601</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5245976777997466</v>
+        <v>0.0003291916656637279</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6076855119419284</v>
+        <v>0.0003813303305399712</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6787160103793366</v>
+        <v>0.0004259028650422321</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7295162514022405</v>
+        <v>0.0004577806576176545</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.7621789467039645</v>
+        <v>0.0004782769112734815</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7744094543751552</v>
+        <v>0.0004859517092426199</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7781075512030664</v>
+        <v>0.0004882723116891876</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.7774310945976283</v>
+        <v>0.0004878478266292702</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.7610062935080365</v>
+        <v>0.00047754105658874</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.7247558299035917</v>
+        <v>0.0004547934330287576</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.6923737175742311</v>
+        <v>0.0004344732487303411</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6431338371900849</v>
+        <v>0.0004035746021546936</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6055151548019929</v>
+        <v>0.0003799684040347355</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5732178952511688</v>
+        <v>0.0003597014659260844</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.5376871555931481</v>
+        <v>0.0003374054782287219</v>
       </c>
     </row>
     <row r="11">
@@ -1615,115 +1615,115 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5386175614622591</v>
+        <v>0.0003379893196576061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6319628408811107</v>
+        <v>0.0003965646609412702</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6531870344827295</v>
+        <v>0.0004098831103735863</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7782568104551126</v>
+        <v>0.0004883659737541874</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7065885477521922</v>
+        <v>0.0004433932341237883</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8464098135088476</v>
+        <v>0.0005311328435759183</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9367150205013443</v>
+        <v>0.0005878005010322969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9227760958316942</v>
+        <v>0.0005790536498285161</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9317398689609949</v>
+        <v>0.0005846785306313485</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8898494999368037</v>
+        <v>0.0005583917952188336</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8025695037857286</v>
+        <v>0.000503622495757573</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6776466062431533</v>
+        <v>0.0004252318004459603</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5405060039726394</v>
+        <v>0.0003391743411737318</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4941125161997472</v>
+        <v>0.0003100618418962607</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4733903899261736</v>
+        <v>0.0002970584460507003</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4648897421828479</v>
+        <v>0.0002917241822743476</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4805630278069247</v>
+        <v>0.0003015593668726727</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4872477459841779</v>
+        <v>0.000305754111920901</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5033057281365397</v>
+        <v>0.0003158306984473711</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5504402550308426</v>
+        <v>0.000345408209128862</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6173875350096195</v>
+        <v>0.0003874184724992655</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6756348529507913</v>
+        <v>0.0004239693998573897</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7522489609041904</v>
+        <v>0.0004720457198218627</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8044840489183855</v>
+        <v>0.000504823896998713</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.8439892306990865</v>
+        <v>0.0005296138973038642</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.8480233362752894</v>
+        <v>0.0005321453494819665</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8371081990417566</v>
+        <v>0.0005252959630685052</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.810564934862863</v>
+        <v>0.0005086397296977243</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.7818131683145543</v>
+        <v>0.0004905976332086404</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.7797977309789857</v>
+        <v>0.0004893329208364481</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.7952826354601465</v>
+        <v>0.0004990498938893538</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.7733364373409423</v>
+        <v>0.000485278377507223</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.7347845976806494</v>
+        <v>0.0004610866114182062</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6524100054951231</v>
+        <v>0.0004093955148741705</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.5896901003797547</v>
+        <v>0.0003700379825995412</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.5376222877311512</v>
+        <v>0.000337364772826387</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.451580510661358</v>
+        <v>0.0002833724714706716</v>
       </c>
     </row>
     <row r="12">
@@ -1733,115 +1733,115 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1926939641327366</v>
+        <v>0.0001209178951806501</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2003458281770173</v>
+        <v>0.0001257195364702837</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2272778215497355</v>
+        <v>0.0001426197023177465</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2227234862870396</v>
+        <v>0.0001397617994436697</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2546575640429191</v>
+        <v>0.0001598008363909622</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2886285080632592</v>
+        <v>0.0001811180326338587</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3108535655739473</v>
+        <v>0.0001950645368046386</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3102173271918403</v>
+        <v>0.000194665289187601</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3080501616878945</v>
+        <v>0.0001933053654742421</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3269369600148006</v>
+        <v>0.0002051570698629574</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3686226889759827</v>
+        <v>0.0002313153910524319</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3634281540520402</v>
+        <v>0.0002280557548086478</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3719016788743854</v>
+        <v>0.0002333729986096688</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3511808171367273</v>
+        <v>0.0002203703962763598</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3208767190930906</v>
+        <v>0.0002013541921763681</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2972857018156826</v>
+        <v>0.0001865505310072537</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2788225556532126</v>
+        <v>0.000174964673700168</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2765502732591641</v>
+        <v>0.0001735387878112093</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2511048096198641</v>
+        <v>0.0001575714381383338</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2505400481727129</v>
+        <v>0.0001572170432003499</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2380754645371401</v>
+        <v>0.0001493953596084424</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2220431577060262</v>
+        <v>0.0001393348846701965</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2257587385415208</v>
+        <v>0.0001416664585522517</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2630154320377838</v>
+        <v>0.0001650455040726162</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3029730991351087</v>
+        <v>0.0001901194446264024</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.3219581915236685</v>
+        <v>0.0002020328297797302</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.3205832575036557</v>
+        <v>0.0002011700413241578</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.3006061261825021</v>
+        <v>0.0001886341392165165</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2729440059357396</v>
+        <v>0.0001712758095380192</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.2474535270371837</v>
+        <v>0.0001552802122216603</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.2427470599207701</v>
+        <v>0.0001523268446887694</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.2158303396709026</v>
+        <v>0.0001354362629187126</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.2034925669590047</v>
+        <v>0.0001276941547823504</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1899780168616045</v>
+        <v>0.0001192136039802226</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.1744110957744195</v>
+        <v>0.0001094451644716085</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.1586298408198075</v>
+        <v>9.954222775530114e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.1482830182848107</v>
+        <v>9.304946598992633e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1851,115 +1851,115 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2391672015070401</v>
+        <v>0.000150080438339815</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220432873759715</v>
+        <v>0.0001383244111646693</v>
       </c>
       <c r="D13" t="n">
-        <v>0.180590221868116</v>
+        <v>0.0001133226441044989</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1718696758981085</v>
+        <v>0.0001078503914147725</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2127300205322853</v>
+        <v>0.0001334907735188908</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2255089001233099</v>
+        <v>0.0001415096817907102</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2366423579377373</v>
+        <v>0.0001484960671248962</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2292495069298097</v>
+        <v>0.0001438569597855144</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2222350984503663</v>
+        <v>0.0001394553299104482</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2445624935567978</v>
+        <v>0.0001534660522145298</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2771082181980029</v>
+        <v>0.0001738889053041713</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3323340420038268</v>
+        <v>0.0002085438069471605</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3662027760710561</v>
+        <v>0.0002297968651541185</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3829685281476883</v>
+        <v>0.000240317586243392</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3983580935290765</v>
+        <v>0.0002499747328075709</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3836287870833972</v>
+        <v>0.000240731907061065</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3780932525175609</v>
+        <v>0.000237258289237003</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4455978411581268</v>
+        <v>0.0002796182708284872</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4574949131564549</v>
+        <v>0.0002870838337034069</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4755082776404269</v>
+        <v>0.000298387447328914</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4833771462093512</v>
+        <v>0.0003033252616973604</v>
       </c>
       <c r="W13" t="n">
-        <v>0.4675203741888617</v>
+        <v>0.0002933749370688408</v>
       </c>
       <c r="X13" t="n">
-        <v>0.4414632134356124</v>
+        <v>0.000277023739734521</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4290826065309055</v>
+        <v>0.0002692547526014058</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4253165436307694</v>
+        <v>0.0002668915005864714</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.4286722322377207</v>
+        <v>0.0002689972375516143</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.4395381597934755</v>
+        <v>0.0002758157442710165</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.4132059238662049</v>
+        <v>0.0002592919337922796</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.3713362429867771</v>
+        <v>0.0002330181804517835</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.3336718437380857</v>
+        <v>0.0002093832944246416</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.3105320270233602</v>
+        <v>0.0001948627673048443</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.2708573035098774</v>
+        <v>0.0001699663774219733</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2459996126452738</v>
+        <v>0.0001543678625856256</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.208934308771304</v>
+        <v>0.0001311089164694706</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.1716537498865214</v>
+        <v>0.0001077148951165186</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.1544857654839468</v>
+        <v>9.694176816468761e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.1708007002034426</v>
+        <v>0.0001071795956709617</v>
       </c>
     </row>
     <row r="14">
@@ -1969,115 +1969,115 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3375816708487136</v>
+        <v>0.0002118367602966276</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3405618232194305</v>
+        <v>0.0002137068435325326</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3487822176358628</v>
+        <v>0.0002188652448081691</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4698401120378708</v>
+        <v>0.0002948306018548944</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4833151167816439</v>
+        <v>0.0003032863374483763</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5269401659897691</v>
+        <v>0.0003306616065759816</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5314963031342471</v>
+        <v>0.0003335206401536248</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5107723513543734</v>
+        <v>0.0003205160987798148</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4908986046514184</v>
+        <v>0.0003080450718252842</v>
       </c>
       <c r="K14" t="n">
-        <v>0.484130800280287</v>
+        <v>0.000303798189141466</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4845647136950551</v>
+        <v>0.0003040704752872233</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5151376871114494</v>
+        <v>0.0003232554020780689</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5083101742841759</v>
+        <v>0.0003189710515842252</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5089514120858691</v>
+        <v>0.0003193734364001689</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4744628957170077</v>
+        <v>0.0002977314569744229</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4797844054499252</v>
+        <v>0.000301070771513847</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4737163151281816</v>
+        <v>0.000297262968229641</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4651173909879159</v>
+        <v>0.0002918670347735066</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4696461749862789</v>
+        <v>0.0002947089039066396</v>
       </c>
       <c r="U14" t="n">
-        <v>0.5812777057189105</v>
+        <v>0.0003647590987466068</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6024395868695281</v>
+        <v>0.0003780384463292489</v>
       </c>
       <c r="W14" t="n">
-        <v>0.6012720260686935</v>
+        <v>0.0003773057871867179</v>
       </c>
       <c r="X14" t="n">
-        <v>0.6105858025021242</v>
+        <v>0.0003831502994815495</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6423112992816982</v>
+        <v>0.0004030584492329554</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.6685266864248227</v>
+        <v>0.0004195089356244695</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.6796684285919958</v>
+        <v>0.0004265005194945903</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.6665147844400872</v>
+        <v>0.0004182464417295574</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.6498062640591057</v>
+        <v>0.000407761634251833</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.6343747510237796</v>
+        <v>0.0003980781650052351</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.6275353214016802</v>
+        <v>0.0003937863365721931</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.6403733364757628</v>
+        <v>0.0004018423531061942</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.612568904547288</v>
+        <v>0.0003843947210507921</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.5681773709306616</v>
+        <v>0.0003565384732802807</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.5257544932685779</v>
+        <v>0.0003299175819747709</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.497824808334684</v>
+        <v>0.0003123913520771973</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.4757370509976288</v>
+        <v>0.0002985310054987341</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.4798367245261924</v>
+        <v>0.0003011036023947129</v>
       </c>
     </row>
     <row r="15">
@@ -2087,115 +2087,115 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2876316510706747</v>
+        <v>0.0001804924922860749</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2729365681083113</v>
+        <v>0.0001712711422074083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3102308347563261</v>
+        <v>0.0001946737653548437</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3189221593580277</v>
+        <v>0.0002001276812670495</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3624595675089224</v>
+        <v>0.0002274479545248079</v>
       </c>
       <c r="G15" t="n">
-        <v>0.416247918032564</v>
+        <v>0.0002612008235356791</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4468938027240499</v>
+        <v>0.0002804315030721214</v>
       </c>
       <c r="I15" t="n">
-        <v>0.444730834870775</v>
+        <v>0.0002790742134375522</v>
       </c>
       <c r="J15" t="n">
-        <v>0.409815974267525</v>
+        <v>0.000257164697622295</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3469287768164842</v>
+        <v>0.0002177021872950299</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3223637281292744</v>
+        <v>0.0002022873091194919</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2742142358763843</v>
+        <v>0.0001720728948619393</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2286768612059414</v>
+        <v>0.0001434976173643545</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2118107894705515</v>
+        <v>0.0001329139444227134</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2012280561018023</v>
+        <v>0.0001262731456308753</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2123349046902265</v>
+        <v>0.000133242833339813</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2374385807610755</v>
+        <v>0.0001489957069985486</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2478646870504515</v>
+        <v>0.0001555382203207233</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2913736995039834</v>
+        <v>0.0001828406749199017</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3038880110561594</v>
+        <v>0.0001906935634072736</v>
       </c>
       <c r="V15" t="n">
-        <v>0.317528515232314</v>
+        <v>0.0001992531519839418</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3245651205124084</v>
+        <v>0.0002036687106316426</v>
       </c>
       <c r="X15" t="n">
-        <v>0.3421553463242607</v>
+        <v>0.0002147067993984313</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.375869570656706</v>
+        <v>0.0002358629007961863</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.4104216681512349</v>
+        <v>0.0002575447781809759</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.4367455316037044</v>
+        <v>0.0002740633348260758</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.4507017162867179</v>
+        <v>0.0002828210169061431</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.4524568364942241</v>
+        <v>0.0002839223769940725</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.4489121466351804</v>
+        <v>0.0002816980393571733</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.4520407324553976</v>
+        <v>0.0002836612664565551</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.442719996342438</v>
+        <v>0.000277812386874956</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.4312411951528492</v>
+        <v>0.0002706092942130286</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.3954008803797746</v>
+        <v>0.0002481190442227026</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.3561088543026136</v>
+        <v>0.0002234628018125318</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.3290068566094859</v>
+        <v>0.0002064559561077726</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.3103147613533052</v>
+        <v>0.0001947264303539891</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.2537038287976257</v>
+        <v>0.000159202355483999</v>
       </c>
     </row>
     <row r="16">
@@ -2205,115 +2205,115 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3057701083279341</v>
+        <v>0.0001918746032060681</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3728833214690548</v>
+        <v>0.0002339889917306851</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4216820689986739</v>
+        <v>0.0002646108218709839</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4932060081058797</v>
+        <v>0.0003094929966230419</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6182983642998947</v>
+        <v>0.0003879900293777837</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7207219361502702</v>
+        <v>0.0004522621137721877</v>
       </c>
       <c r="H16" t="n">
-        <v>0.833124029859415</v>
+        <v>0.0005227958466079788</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8776539336301278</v>
+        <v>0.0005507389233970494</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8923712782686467</v>
+        <v>0.0005599742429585488</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8050985684151154</v>
+        <v>0.0005052095157409837</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7300380953504785</v>
+        <v>0.0004581081212832534</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6967611551070366</v>
+        <v>0.0004372264211718919</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5979740830639321</v>
+        <v>0.0003752362863159652</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4910190069499334</v>
+        <v>0.0003081206257876353</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4124733165818766</v>
+        <v>0.0002588322134724778</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.411148498839375</v>
+        <v>0.0002580008736137424</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3842861829524507</v>
+        <v>0.0002411444312682668</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4027741754346246</v>
+        <v>0.0002527458799546418</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3459746700519266</v>
+        <v>0.0002171034732550381</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3028972400696053</v>
+        <v>0.0001900718421051074</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3812857060055772</v>
+        <v>0.0002392615941042334</v>
       </c>
       <c r="W16" t="n">
-        <v>0.4468994053117638</v>
+        <v>0.0002804350187666424</v>
       </c>
       <c r="X16" t="n">
-        <v>0.4934135636444072</v>
+        <v>0.000309623240343777</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5494877936122624</v>
+        <v>0.000344810527564243</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.6358239067303886</v>
+        <v>0.000398987528506167</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.7000672100550255</v>
+        <v>0.0004393010123894301</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.78969256097235</v>
+        <v>0.000495542051575716</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.8651105092018939</v>
+        <v>0.0005428677662124125</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.8871116554514402</v>
+        <v>0.0005566737632400319</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.8472077700002265</v>
+        <v>0.0005316335713481534</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.7729805910327261</v>
+        <v>0.0004850550794563942</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.7070867286746569</v>
+        <v>0.0004437058489419779</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.6704849824804057</v>
+        <v>0.0004207377911220842</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.6443568630397222</v>
+        <v>0.0004043420663155729</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.5083743061619055</v>
+        <v>0.0003190112951471409</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.4163928031416333</v>
+        <v>0.000261291740770739</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.362185557955052</v>
+        <v>0.0002272760100704887</v>
       </c>
     </row>
     <row r="17">
@@ -2323,115 +2323,115 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3676954341289642</v>
+        <v>0.0002307335269296912</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4306608488410156</v>
+        <v>0.0002702451195757035</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4385922772345651</v>
+        <v>0.0002752221910238958</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3914382585551184</v>
+        <v>0.0002456324490011508</v>
       </c>
       <c r="F17" t="n">
-        <v>0.386852332725366</v>
+        <v>0.0002427547226474272</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3070202496517449</v>
+        <v>0.0001926590826693139</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3163710360781081</v>
+        <v>0.0001985268192019475</v>
       </c>
       <c r="I17" t="n">
-        <v>0.356296405193384</v>
+        <v>0.0002235804923642482</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3806297092014438</v>
+        <v>0.0002388499478279318</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3818007179033157</v>
+        <v>0.0002395847705718919</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3773523673588491</v>
+        <v>0.0002367933744465204</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3640613004467452</v>
+        <v>0.0002284530621645554</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4078217654712466</v>
+        <v>0.0002559133064265095</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4196823827173877</v>
+        <v>0.0002633559934842047</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4314351619198902</v>
+        <v>0.0002707310108081028</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4320948347650845</v>
+        <v>0.0002711449638465787</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4106137687887641</v>
+        <v>0.0002576653237562224</v>
       </c>
       <c r="S17" t="n">
-        <v>0.4270238008293827</v>
+        <v>0.0002679628260320683</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5181646502823375</v>
+        <v>0.0003251548596820497</v>
       </c>
       <c r="U17" t="n">
-        <v>0.566727126363655</v>
+        <v>0.0003556284265057029</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5991618876679083</v>
+        <v>0.0003759816487005377</v>
       </c>
       <c r="W17" t="n">
-        <v>0.6174160404186488</v>
+        <v>0.0003874363600033015</v>
       </c>
       <c r="X17" t="n">
-        <v>0.6335189304504575</v>
+        <v>0.0003975411267910691</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.6178873817939615</v>
+        <v>0.0003877321326668142</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.6116522606517314</v>
+        <v>0.0003838195154340528</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.6076551404090662</v>
+        <v>0.0003813112720196712</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.5885801702366688</v>
+        <v>0.0003693414874223126</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5665873362124672</v>
+        <v>0.0003555407064210355</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.5425167600107218</v>
+        <v>0.000340436115972652</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.5171490514661684</v>
+        <v>0.0003245175586033583</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.4963478935427381</v>
+        <v>0.0003114645693997687</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.5012481735307202</v>
+        <v>0.0003145395569563819</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.4813550470611193</v>
+        <v>0.000302056368953619</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.4265099035435596</v>
+        <v>0.0002676403489974582</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.3943354549281999</v>
+        <v>0.000247450476301252</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.3554115140816683</v>
+        <v>0.0002230252120202359</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.335288110883301</v>
+        <v>0.0002103975224630166</v>
       </c>
     </row>
   </sheetData>
